--- a/DataFiles_Excel/Maps/AwardsByLocation/World/World_All/World_All_ASPR.xlsx
+++ b/DataFiles_Excel/Maps/AwardsByLocation/World/World_All/World_All_ASPR.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jim.ide\Desktop\annual-report-html2excel\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Engineering Projects\Annual Report\2016-html2excel\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -61,7 +61,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,8 +197,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -546,28 +561,31 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="6" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -925,76 +943,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
-    <row r="3" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1005,7 +1026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1016,7 +1037,7 @@
         <v>119990</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1029,8 +1050,8 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
